--- a/biology/Histoire de la zoologie et de la botanique/Annie_Letitia_Massy/Annie_Letitia_Massy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Annie_Letitia_Massy/Annie_Letitia_Massy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie Letitia Massy est une malacologiste irlandaise, née en 1868 et morte le 6 avril 1931.
 Elle est la troisième enfant d’Hugh et Anne Massy. Elle s’intéresse très jeune pour la nature et l’observation des oiseaux, des poissons et des fleurs. Elle contribue régulièrement à la revue Irish Naturalist où elle fait paraître ses observations. En 1901, elle est engagée dans le département des pêches dans le ministère de l’agriculture récemment créé. Elle s’installe alors sur la côte au nord de Dublin et où elle étudie les espèces marines et les mollusques. Elle se consacre alors à l’étude de ces animaux et fait paraître, en 1907, son premier article scientifique d’importantes sur les céphalopodes.
